--- a/morning_mobilization.xlsx
+++ b/morning_mobilization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrick/Intellisoft/app-designer-2.1.10/app/config/tables/morning_mobilization/forms/morning_mobilization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBDD099-6BE3-C54E-A76B-D3E5FBE1B0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67779EF6-28F3-DA47-B67E-57F5E19811EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="389">
   <si>
     <t>type</t>
   </si>
@@ -699,28 +699,7 @@
     <t>inspectors_checklist</t>
   </si>
   <si>
-    <t>Saidou Konte</t>
-  </si>
-  <si>
-    <t>Saidou Konte - District Coordinator</t>
-  </si>
-  <si>
-    <t>Mouhamadou Hady Dieng</t>
-  </si>
-  <si>
-    <t>Mouhamadou Hady Dieng - District Coordinator</t>
-  </si>
-  <si>
     <t>inspectors_roles</t>
-  </si>
-  <si>
-    <t>Role 1</t>
-  </si>
-  <si>
-    <t>Role 2</t>
-  </si>
-  <si>
-    <t>Role 3</t>
   </si>
   <si>
     <t/>
@@ -1196,6 +1175,33 @@
   </si>
   <si>
     <t>selected(data('Q2a_YN'),'yes')</t>
+  </si>
+  <si>
+    <t>County Supervisor Homa Bay</t>
+  </si>
+  <si>
+    <t>County Supervisor Migori</t>
+  </si>
+  <si>
+    <t>National Supervisor</t>
+  </si>
+  <si>
+    <t>Sub County Supervisor Migori</t>
+  </si>
+  <si>
+    <t>Sub County Supervisor Homa Bay</t>
+  </si>
+  <si>
+    <t>Site Supervisor Homa Bay</t>
+  </si>
+  <si>
+    <t>Site Supervisor Migori</t>
+  </si>
+  <si>
+    <t>Solomon Karoki</t>
+  </si>
+  <si>
+    <t>Ishmael Abbey</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
@@ -1807,7 +1813,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>26</v>
@@ -1840,7 +1846,7 @@
         <v>25</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.15">
@@ -1848,16 +1854,16 @@
         <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1871,7 +1877,7 @@
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -1882,7 +1888,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1893,10 +1899,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1911,7 +1917,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1924,16 +1930,16 @@
         <v>38</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -1954,7 +1960,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1972,10 +1978,10 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="18" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1990,7 +1996,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2003,16 +2009,16 @@
         <v>57</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.15">
@@ -2030,7 +2036,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2041,10 +2047,10 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="18" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2059,7 +2065,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2075,13 +2081,13 @@
         <v>120</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="47" customHeight="1" x14ac:dyDescent="0.15">
@@ -2099,7 +2105,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="1"/>
@@ -2110,10 +2116,10 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="18" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2125,16 +2131,16 @@
     </row>
     <row r="25" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="20" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -2143,7 +2149,7 @@
     </row>
     <row r="26" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B26" s="4"/>
       <c r="E26" s="9"/>
@@ -2154,13 +2160,13 @@
         <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -2177,10 +2183,10 @@
         <v>220</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
@@ -2196,10 +2202,10 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="20" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -2207,7 +2213,7 @@
     </row>
     <row r="30" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D30" s="1"/>
       <c r="F30" s="2"/>
@@ -2217,14 +2223,14 @@
     </row>
     <row r="31" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="9" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="9" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
@@ -2235,14 +2241,14 @@
     </row>
     <row r="32" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="9" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="9" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
@@ -2254,14 +2260,14 @@
     </row>
     <row r="33" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="9" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="9" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="2"/>
@@ -2276,29 +2282,29 @@
     </row>
     <row r="35" spans="1:12" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="31" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H35"/>
       <c r="I35" s="31"/>
     </row>
     <row r="36" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="17" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>191</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
@@ -2316,13 +2322,13 @@
         <v>197</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H37" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="2"/>
@@ -2331,7 +2337,7 @@
     </row>
     <row r="38" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E38"/>
       <c r="I38" s="8"/>
@@ -2353,7 +2359,7 @@
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E40"/>
       <c r="I40" s="8"/>
@@ -2370,10 +2376,10 @@
         <v>Q1_Action</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="I41" s="8"/>
     </row>
@@ -2393,7 +2399,7 @@
         <v>22</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -2409,10 +2415,10 @@
         <v>191</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="2"/>
@@ -2437,7 +2443,7 @@
         <v>22</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="17"/>
@@ -2460,10 +2466,10 @@
         <v>Q1a_Action</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="2"/>
@@ -2489,7 +2495,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2510,7 +2516,7 @@
         <v>Q1_Comments</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="2"/>
@@ -2557,7 +2563,7 @@
     </row>
     <row r="54" spans="1:12" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -2580,10 +2586,10 @@
         <v>191</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" t="b">
@@ -2600,32 +2606,32 @@
         <v>197</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H56" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
       <c r="E58" s="23" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F58" s="23"/>
       <c r="G58" s="23" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H58"/>
     </row>
@@ -2634,7 +2640,7 @@
         <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E59"/>
     </row>
@@ -2650,10 +2656,10 @@
         <v>Q2_Action</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2686,10 +2692,10 @@
         <v>191</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G64" s="9"/>
       <c r="J64" s="2"/>
@@ -2701,12 +2707,12 @@
         <v>22</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="9" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D66" t="s">
         <v>189</v>
@@ -2716,10 +2722,10 @@
         <v>Q2a_Action</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -2742,7 +2748,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C68" s="9"/>
       <c r="E68" s="9"/>
@@ -2761,7 +2767,7 @@
         <v>Q2_Comments</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="2"/>
@@ -2803,7 +2809,7 @@
     </row>
     <row r="73" spans="1:12" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="28" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -2821,10 +2827,10 @@
         <v>191</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
@@ -2842,13 +2848,13 @@
         <v>197</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H75" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -2856,13 +2862,13 @@
     </row>
     <row r="76" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D76" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E76" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -2885,7 +2891,7 @@
         <v>22</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="23"/>
@@ -2904,13 +2910,13 @@
         <v>189</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F80" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -2933,7 +2939,7 @@
         <v>22</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -2949,10 +2955,10 @@
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -2993,7 +2999,7 @@
     </row>
     <row r="87" spans="1:15" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C87" s="22"/>
       <c r="D87" s="22"/>
@@ -3012,10 +3018,10 @@
         <v>191</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" t="b">
@@ -3033,14 +3039,14 @@
         <v>197</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -3048,7 +3054,7 @@
     </row>
     <row r="90" spans="1:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C90" s="9"/>
       <c r="E90" s="9"/>
@@ -3063,7 +3069,7 @@
       <c r="E91" s="23"/>
       <c r="F91" s="23"/>
       <c r="G91" s="23" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H91"/>
       <c r="I91" s="25"/>
@@ -3077,7 +3083,7 @@
         <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E92"/>
     </row>
@@ -3089,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="2"/>
@@ -3122,7 +3128,7 @@
         <v>22</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C95" s="9"/>
       <c r="E95" s="9"/>
@@ -3139,13 +3145,13 @@
         <v>9</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="2"/>
@@ -3187,7 +3193,7 @@
     </row>
     <row r="100" spans="1:18" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C100" s="22"/>
       <c r="D100" s="22"/>
@@ -3203,10 +3209,10 @@
         <v>191</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
@@ -3220,18 +3226,18 @@
         <v>197</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H102" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C103" s="9"/>
       <c r="E103" s="9"/>
@@ -3240,7 +3246,7 @@
     <row r="104" spans="1:18" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="23"/>
       <c r="E104" s="23" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F104" s="23"/>
       <c r="H104"/>
@@ -3250,7 +3256,7 @@
         <v>22</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C105" s="32"/>
       <c r="E105" s="32"/>
@@ -3265,13 +3271,13 @@
         <v>189</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3288,7 +3294,7 @@
         <v>22</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C108" s="9"/>
       <c r="E108" s="9"/>
@@ -3300,10 +3306,10 @@
         <v>9</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3320,7 +3326,7 @@
     </row>
     <row r="113" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C113" s="22"/>
       <c r="D113" s="22"/>
@@ -3336,10 +3342,10 @@
         <v>191</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" t="b">
@@ -3354,27 +3360,27 @@
         <v>197</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C116" s="32"/>
       <c r="E116" s="32" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F116" s="32"/>
       <c r="G116" s="32" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H116"/>
     </row>
@@ -3388,12 +3394,12 @@
         <v>22</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C118" s="32"/>
       <c r="D118" s="6"/>
       <c r="G118" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3404,13 +3410,13 @@
         <v>189</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3424,7 +3430,7 @@
         <v>22</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C121" s="9"/>
       <c r="E121"/>
@@ -3434,10 +3440,10 @@
         <v>9</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3454,7 +3460,7 @@
     </row>
     <row r="126" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H126"/>
     </row>
@@ -3466,10 +3472,10 @@
         <v>191</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" t="b">
@@ -3484,27 +3490,27 @@
         <v>197</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C129" s="32"/>
       <c r="E129" s="32" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F129" s="32"/>
       <c r="G129" s="32" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H129"/>
     </row>
@@ -3517,12 +3523,12 @@
         <v>22</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C131" s="32"/>
       <c r="D131" s="6"/>
       <c r="G131" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3533,13 +3539,13 @@
         <v>189</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F132" s="34" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G132" s="32" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3553,7 +3559,7 @@
         <v>22</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C134" s="9"/>
       <c r="E134"/>
@@ -3563,10 +3569,10 @@
         <v>9</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3583,13 +3589,13 @@
     </row>
     <row r="139" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C139" s="22"/>
       <c r="D139" s="22"/>
       <c r="E139" s="22"/>
       <c r="F139" s="22" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H139"/>
     </row>
@@ -3601,13 +3607,13 @@
         <v>191</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H140" t="b">
         <v>1</v>
@@ -3621,27 +3627,27 @@
         <v>197</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C142" s="32"/>
       <c r="E142" s="32" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F142" s="32"/>
       <c r="G142" s="32" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H142"/>
     </row>
@@ -3655,14 +3661,14 @@
         <v>22</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C144" s="32"/>
       <c r="D144" s="6"/>
       <c r="E144"/>
       <c r="F144" s="15"/>
       <c r="G144" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3673,13 +3679,13 @@
         <v>189</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3694,7 +3700,7 @@
         <v>22</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C147" s="9"/>
       <c r="E147"/>
@@ -3704,10 +3710,10 @@
         <v>9</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3724,13 +3730,13 @@
     </row>
     <row r="152" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C152" s="22"/>
       <c r="D152" s="22"/>
       <c r="E152" s="22"/>
       <c r="F152" s="22" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H152"/>
     </row>
@@ -3742,10 +3748,10 @@
         <v>191</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G153" s="9"/>
       <c r="H153" t="b">
@@ -3760,27 +3766,27 @@
         <v>197</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G154" s="9"/>
       <c r="H154" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="155" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C155" s="32"/>
       <c r="E155" s="32" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F155" s="32"/>
       <c r="G155" s="32" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H155"/>
     </row>
@@ -3793,13 +3799,13 @@
         <v>22</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C157" s="32"/>
       <c r="D157" s="6"/>
       <c r="E157"/>
       <c r="G157" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3810,13 +3816,13 @@
         <v>189</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3831,7 +3837,7 @@
         <v>22</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C160" s="9"/>
       <c r="E160"/>
@@ -3841,10 +3847,10 @@
         <v>9</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3861,13 +3867,13 @@
     </row>
     <row r="165" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C165" s="22"/>
       <c r="D165" s="22"/>
       <c r="E165" s="22"/>
       <c r="F165" s="22" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H165"/>
     </row>
@@ -3879,10 +3885,10 @@
         <v>191</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G166" s="9"/>
       <c r="H166" t="b">
@@ -3897,31 +3903,31 @@
         <v>197</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H167" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="168" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C168" s="32"/>
       <c r="E168" s="32" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F168" s="32" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G168" s="32" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H168"/>
     </row>
@@ -3935,12 +3941,12 @@
         <v>22</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C170" s="32"/>
       <c r="D170" s="6"/>
       <c r="G170" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3951,13 +3957,13 @@
         <v>189</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3971,7 +3977,7 @@
         <v>22</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C173" s="9"/>
       <c r="E173"/>
@@ -3981,10 +3987,10 @@
         <v>9</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4001,13 +4007,13 @@
     </row>
     <row r="178" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C178" s="22"/>
       <c r="D178" s="22"/>
       <c r="E178" s="22"/>
       <c r="F178" s="22" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4018,10 +4024,10 @@
         <v>191</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G179" s="9"/>
       <c r="H179" t="b">
@@ -4036,27 +4042,27 @@
         <v>197</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G180" s="9"/>
       <c r="H180" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="181" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C181" s="32"/>
       <c r="E181" s="32" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F181" s="32"/>
       <c r="G181" s="32" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H181"/>
     </row>
@@ -4069,12 +4075,12 @@
         <v>22</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C183" s="32"/>
       <c r="D183" s="6"/>
       <c r="G183" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4085,13 +4091,13 @@
         <v>189</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4105,7 +4111,7 @@
         <v>22</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C186" s="9"/>
       <c r="E186"/>
@@ -4115,10 +4121,10 @@
         <v>9</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4130,7 +4136,7 @@
     <row r="190" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="191" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C191" s="35"/>
       <c r="D191" s="35"/>
@@ -4145,10 +4151,10 @@
         <v>191</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F192" s="21" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G192" s="20"/>
       <c r="H192" t="b">
@@ -4163,25 +4169,25 @@
         <v>197</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F193" s="20" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G193" s="20"/>
       <c r="H193" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B194" s="6"/>
       <c r="C194" s="32"/>
       <c r="D194" s="6"/>
       <c r="E194" s="32" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="195" spans="1:8" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4195,7 +4201,7 @@
         <v>22</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C196" s="32"/>
       <c r="D196" s="6"/>
@@ -4208,13 +4214,13 @@
         <v>189</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F197" s="21" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G197" s="20" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4229,7 +4235,7 @@
         <v>22</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C199" s="9"/>
       <c r="E199"/>
@@ -4239,10 +4245,10 @@
         <v>9</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F200" s="20" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4252,7 +4258,7 @@
     </row>
     <row r="204" spans="1:8" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C204" s="22"/>
       <c r="D204" s="22"/>
@@ -4263,30 +4269,30 @@
         <v>9</v>
       </c>
       <c r="E205" s="32" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F205" s="34" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E206"/>
     </row>
     <row r="207" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C207" s="9" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H207" t="b">
         <v>1</v>
@@ -4305,16 +4311,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172:C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4342,7 +4348,7 @@
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4356,7 +4362,7 @@
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4370,11 +4376,11 @@
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -4384,7 +4390,7 @@
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -4400,7 +4406,7 @@
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -4416,7 +4422,7 @@
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4432,7 +4438,7 @@
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -4448,7 +4454,7 @@
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4464,7 +4470,7 @@
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -4480,7 +4486,7 @@
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4612,7 +4618,7 @@
         <v>218</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>218</v>
@@ -5744,7 +5750,7 @@
         <v>218</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>218</v>
@@ -7122,7 +7128,7 @@
         <v>218</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>218</v>
@@ -7159,13 +7165,13 @@
         <v>192</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7179,13 +7185,13 @@
         <v>193</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7241,13 +7247,13 @@
         <v>198</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7387,13 +7393,13 @@
         <v>219</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7406,10 +7412,10 @@
         <v>220</v>
       </c>
       <c r="B170" t="s">
-        <v>221</v>
+        <v>387</v>
       </c>
       <c r="C170" t="s">
-        <v>222</v>
+        <v>387</v>
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
@@ -7420,10 +7426,10 @@
         <v>220</v>
       </c>
       <c r="B171" t="s">
-        <v>223</v>
+        <v>388</v>
       </c>
       <c r="C171" t="s">
-        <v>224</v>
+        <v>388</v>
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
@@ -7431,13 +7437,13 @@
     </row>
     <row r="172" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B172" t="s">
-        <v>226</v>
+        <v>380</v>
       </c>
       <c r="C172" t="s">
-        <v>226</v>
+        <v>380</v>
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
@@ -7445,13 +7451,13 @@
     </row>
     <row r="173" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B173" t="s">
-        <v>227</v>
+        <v>381</v>
       </c>
       <c r="C173" t="s">
-        <v>227</v>
+        <v>381</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
@@ -7459,17 +7465,61 @@
     </row>
     <row r="174" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B174" t="s">
-        <v>228</v>
+        <v>382</v>
       </c>
       <c r="C174" t="s">
-        <v>228</v>
+        <v>382</v>
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
+    </row>
+    <row r="175" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>221</v>
+      </c>
+      <c r="B175" t="s">
+        <v>383</v>
+      </c>
+      <c r="C175" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>221</v>
+      </c>
+      <c r="B176" t="s">
+        <v>384</v>
+      </c>
+      <c r="C176" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>221</v>
+      </c>
+      <c r="B177" t="s">
+        <v>385</v>
+      </c>
+      <c r="C177" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>221</v>
+      </c>
+      <c r="B178" t="s">
+        <v>386</v>
+      </c>
+      <c r="C178" t="s">
+        <v>386</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7512,7 +7562,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7520,7 +7570,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7528,7 +7578,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/morning_mobilization.xlsx
+++ b/morning_mobilization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrick/Intellisoft/app-designer-2.1.10/app/config/tables/morning_mobilization/forms/morning_mobilization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67779EF6-28F3-DA47-B67E-57F5E19811EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFBBBD7-FAAF-AA49-A983-E952D08621B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="397">
   <si>
     <t>type</t>
   </si>
@@ -1202,6 +1202,30 @@
   </si>
   <si>
     <t>Ishmael Abbey</t>
+  </si>
+  <si>
+    <t>Mathias Aiwala</t>
+  </si>
+  <si>
+    <t>Michael Majiwa</t>
+  </si>
+  <si>
+    <t>Robert Bonyo</t>
+  </si>
+  <si>
+    <t>Roslin Mboin</t>
+  </si>
+  <si>
+    <t>Seth Giriago</t>
+  </si>
+  <si>
+    <t>Adel Ottoman</t>
+  </si>
+  <si>
+    <t>James Kabaka</t>
+  </si>
+  <si>
+    <t>Judith Niver Atieno</t>
   </si>
 </sst>
 </file>
@@ -4311,10 +4335,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172:C178"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7519,6 +7543,94 @@
       </c>
       <c r="C178" t="s">
         <v>386</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>220</v>
+      </c>
+      <c r="B179" t="s">
+        <v>389</v>
+      </c>
+      <c r="C179" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>220</v>
+      </c>
+      <c r="B180" t="s">
+        <v>390</v>
+      </c>
+      <c r="C180" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>220</v>
+      </c>
+      <c r="B181" t="s">
+        <v>391</v>
+      </c>
+      <c r="C181" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>220</v>
+      </c>
+      <c r="B182" t="s">
+        <v>392</v>
+      </c>
+      <c r="C182" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>220</v>
+      </c>
+      <c r="B183" t="s">
+        <v>393</v>
+      </c>
+      <c r="C183" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>220</v>
+      </c>
+      <c r="B184" t="s">
+        <v>394</v>
+      </c>
+      <c r="C184" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>220</v>
+      </c>
+      <c r="B185" t="s">
+        <v>395</v>
+      </c>
+      <c r="C185" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>220</v>
+      </c>
+      <c r="B186" t="s">
+        <v>396</v>
+      </c>
+      <c r="C186" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/morning_mobilization.xlsx
+++ b/morning_mobilization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrick/Intellisoft/app-designer-2.1.10/app/config/tables/morning_mobilization/forms/morning_mobilization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFBBBD7-FAAF-AA49-A983-E952D08621B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F6DC22-1834-0A4E-820E-2B8D850708DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="393">
   <si>
     <t>type</t>
   </si>
@@ -1177,12 +1177,6 @@
     <t>selected(data('Q2a_YN'),'yes')</t>
   </si>
   <si>
-    <t>County Supervisor Homa Bay</t>
-  </si>
-  <si>
-    <t>County Supervisor Migori</t>
-  </si>
-  <si>
     <t>National Supervisor</t>
   </si>
   <si>
@@ -1196,12 +1190,6 @@
   </si>
   <si>
     <t>Site Supervisor Migori</t>
-  </si>
-  <si>
-    <t>Solomon Karoki</t>
-  </si>
-  <si>
-    <t>Ishmael Abbey</t>
   </si>
   <si>
     <t>Mathias Aiwala</t>
@@ -4335,10 +4323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176"/>
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7433,13 +7421,13 @@
     </row>
     <row r="170" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B170" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C170" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
@@ -7447,102 +7435,90 @@
     </row>
     <row r="171" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B171" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C171" t="s">
-        <v>388</v>
-      </c>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9"/>
-      <c r="F171" s="9"/>
+        <v>381</v>
+      </c>
     </row>
     <row r="172" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>221</v>
       </c>
       <c r="B172" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C172" t="s">
-        <v>380</v>
-      </c>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9"/>
-      <c r="F172" s="9"/>
+        <v>382</v>
+      </c>
     </row>
     <row r="173" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>221</v>
       </c>
       <c r="B173" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C173" t="s">
-        <v>381</v>
-      </c>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9"/>
-      <c r="F173" s="9"/>
+        <v>383</v>
+      </c>
     </row>
     <row r="174" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>221</v>
       </c>
       <c r="B174" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C174" t="s">
-        <v>382</v>
-      </c>
-      <c r="D174" s="9"/>
-      <c r="E174" s="9"/>
-      <c r="F174" s="9"/>
+        <v>384</v>
+      </c>
     </row>
     <row r="175" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B175" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C175" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B176" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C176" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B177" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C177" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B178" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C178" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7587,50 +7563,6 @@
       </c>
       <c r="C182" t="s">
         <v>392</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" t="s">
-        <v>220</v>
-      </c>
-      <c r="B183" t="s">
-        <v>393</v>
-      </c>
-      <c r="C183" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" t="s">
-        <v>220</v>
-      </c>
-      <c r="B184" t="s">
-        <v>394</v>
-      </c>
-      <c r="C184" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" t="s">
-        <v>220</v>
-      </c>
-      <c r="B185" t="s">
-        <v>395</v>
-      </c>
-      <c r="C185" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" t="s">
-        <v>220</v>
-      </c>
-      <c r="B186" t="s">
-        <v>396</v>
-      </c>
-      <c r="C186" t="s">
-        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/morning_mobilization.xlsx
+++ b/morning_mobilization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrick/Intellisoft/app-designer-2.1.10/app/config/tables/morning_mobilization/forms/morning_mobilization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F6DC22-1834-0A4E-820E-2B8D850708DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE13EA73-FDDA-CC4F-AFCE-D8D4A207BEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="391">
   <si>
     <t>type</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Migori</t>
   </si>
   <si>
-    <t>level1</t>
-  </si>
-  <si>
     <t>Homabay Township</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>Uriri</t>
   </si>
   <si>
-    <t>level2</t>
-  </si>
-  <si>
     <t>Homabay Central</t>
   </si>
   <si>
@@ -396,9 +390,6 @@
     <t>West Kanyamkago</t>
   </si>
   <si>
-    <t>level3</t>
-  </si>
-  <si>
     <t>CHMT Offices</t>
   </si>
   <si>
@@ -636,57 +627,30 @@
     <t>q8_checklist</t>
   </si>
   <si>
-    <t>helmet</t>
-  </si>
-  <si>
     <t>Helmet</t>
   </si>
   <si>
-    <t>face_shield</t>
-  </si>
-  <si>
     <t>Face Shield</t>
   </si>
   <si>
-    <t>face_mask</t>
-  </si>
-  <si>
     <t>Face Mask</t>
   </si>
   <si>
-    <t>coveralls</t>
-  </si>
-  <si>
     <t>Coveralls</t>
   </si>
   <si>
-    <t>boots</t>
-  </si>
-  <si>
     <t>Boots</t>
   </si>
   <si>
-    <t>gloves</t>
-  </si>
-  <si>
     <t>Gloves</t>
   </si>
   <si>
-    <t>neck</t>
-  </si>
-  <si>
     <t>Neck Protection</t>
   </si>
   <si>
-    <t>flashlight</t>
-  </si>
-  <si>
     <t>Flashlight/Torch</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>None of the above</t>
   </si>
   <si>
@@ -723,12 +687,6 @@
     <t>Enter County Name (Other)</t>
   </si>
   <si>
-    <t>level1_other</t>
-  </si>
-  <si>
-    <t>level_1</t>
-  </si>
-  <si>
     <t>choice_filter</t>
   </si>
   <si>
@@ -753,42 +711,21 @@
     <t>Select Sub-county</t>
   </si>
   <si>
-    <t>level2_other</t>
-  </si>
-  <si>
     <t>Enter Sub-county Name (Other)</t>
   </si>
   <si>
     <t>Select Ward</t>
   </si>
   <si>
-    <t>level_2</t>
-  </si>
-  <si>
-    <t>level3_other</t>
-  </si>
-  <si>
     <t>Enter Ward Name (Other)</t>
   </si>
   <si>
     <t>Operations Site</t>
   </si>
   <si>
-    <t>level4_other</t>
-  </si>
-  <si>
     <t>Enter Operations Site Name (Other)</t>
   </si>
   <si>
-    <t>choice_item.level1 === data('county') || choice_item.level1 === 'other'</t>
-  </si>
-  <si>
-    <t>choice_item.level1 === data('county') &amp;&amp; choice_item.level2 === data('level_1') || choice_item.level2 === 'other'</t>
-  </si>
-  <si>
-    <t>choice_item.level1 === data('county') &amp;&amp; choice_item.level2 === data('level_1') &amp;&amp; choice_item.level3 === data('level_2') || choice_item.level3 === 'other'</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -888,16 +825,9 @@
     <t>Have the Team Leaders performed a physical inspection of each spray operator, looking for symptoms such as nausea, dizziness, confusion, breathing problems, skin irritation, excessive sweating, fatigue, weakness, alcohol intoxication, headache, cough, loss of taste and/or smell, etc.?</t>
   </si>
   <si>
-    <t>**Advise team leaders that they must check daily on the health of each of their spray operators for these symptoms, and any others.**</t>
-  </si>
-  <si>
     <t>Were any health problems observed among the spray operators?</t>
   </si>
   <si>
-    <t>** Ensure that team leaders have determined the need to refer sick operators to the nearest health clinic for evaluation, and that the site supervisor has completed an Incident Report Form, if symptoms are possibly work-related.
-Communicate to spray operator that they will continue to receive daily wages while out for work-related illness. **</t>
-  </si>
-  <si>
     <t>Q2_YN</t>
   </si>
   <si>
@@ -916,9 +846,6 @@
     <t>Are all personnel at the operations site wearing masks and maintaining 2-meter personal distancing?</t>
   </si>
   <si>
-    <t>**Instruct personnel who are not wearing masks and maintaining 2-meter personal distancing to do so.**</t>
-  </si>
-  <si>
     <t>Q3_Comments</t>
   </si>
   <si>
@@ -940,9 +867,6 @@
     <t>Have the spray operators eaten breakfast and had plenty of water to drink prior to donning PPE?</t>
   </si>
   <si>
-    <t>**Advise all spray operators to eat breakfast and drink plenty of water before donning PPE.**</t>
-  </si>
-  <si>
     <t>Q4_YN</t>
   </si>
   <si>
@@ -1039,9 +963,6 @@
     <t>Check all that apply</t>
   </si>
   <si>
-    <t>**Advise all spray operators to be in full PPE before boarding truck.**</t>
-  </si>
-  <si>
     <t>Q8_YN</t>
   </si>
   <si>
@@ -1054,18 +975,12 @@
     <t>Q8_Comments</t>
   </si>
   <si>
-    <t>selected(data('Q8_YN'),'no')</t>
-  </si>
-  <si>
     <t>selected(data('Q8_AddInfo'), '1')</t>
   </si>
   <si>
     <t>Are any spray operators eating or drinking after donning PPE?</t>
   </si>
   <si>
-    <t>**Advise spray operators not to eat after donning PPE. Make note of spray team and suggest retraining.**</t>
-  </si>
-  <si>
     <t>Q9_YN</t>
   </si>
   <si>
@@ -1078,18 +993,12 @@
     <t>Q9_Comments</t>
   </si>
   <si>
-    <t>selected(data('Q9_YN'),'no')</t>
-  </si>
-  <si>
     <t>selected(data('Q9_AddInfo'), '1')</t>
   </si>
   <si>
     <t>If today is not the first day of operations at this site, do spray operators fill sprayers using the contents of drums 1, 3, and 5 from the previous day's progressive rinse?</t>
   </si>
   <si>
-    <t>**Ask the spray team supervisor to demonstrate the correct procedure for filling up sprayers for spray operations.**</t>
-  </si>
-  <si>
     <t>Q10_YN</t>
   </si>
   <si>
@@ -1111,9 +1020,6 @@
     <t>Are barrels 1, 3, 5 and 7 empty when spray operators depart for the field?</t>
   </si>
   <si>
-    <t>**Ask spray team supervisor to demonstrate correct procedure for filling up sprayers for spray operations.**</t>
-  </si>
-  <si>
     <t>Q11_YN</t>
   </si>
   <si>
@@ -1138,9 +1044,6 @@
     <t>Q12_Action</t>
   </si>
   <si>
-    <t>**Ask the supervisors to ensure that teams are properly spaced and staggered in the vehicle before departure from the operations site.**</t>
-  </si>
-  <si>
     <t>Q12_Comments</t>
   </si>
   <si>
@@ -1168,12 +1071,6 @@
     <t>When captured, swipe left to proceed to the next question.</t>
   </si>
   <si>
-    <t>**Contact Logistics and ask them to provide a hand-washing station for this site.**</t>
-  </si>
-  <si>
-    <t>** Instruct everyone at the operations site to ensure that they wash their hands with soap and water before they enter the site and as often as possible. **</t>
-  </si>
-  <si>
     <t>selected(data('Q2a_YN'),'yes')</t>
   </si>
   <si>
@@ -1214,6 +1111,103 @@
   </si>
   <si>
     <t>Judith Niver Atieno</t>
+  </si>
+  <si>
+    <t>Contact Logistics and ask them to provide a hand-washing station for this site</t>
+  </si>
+  <si>
+    <t>Instruct everyone at the operations site to ensure that they wash their hands with soap and water before they enter the site and as often as possible</t>
+  </si>
+  <si>
+    <t>Advise team leaders that they must check daily on the health of each of their spray operators for these symptoms, and any others</t>
+  </si>
+  <si>
+    <t>Ensure that team leaders have determined the need to refer sick operators to the nearest health clinic for evaluation, and that the site supervisor has completed an Incident Report Form, if symptoms are possibly work-related.
+Communicate to spray operator that they will continue to receive daily wages while out for work-related illness</t>
+  </si>
+  <si>
+    <t>Instruct personnel who are not wearing masks and maintaining 2-meter personal distancing to do so</t>
+  </si>
+  <si>
+    <t>Advise all spray operators to eat breakfast and drink plenty of water before donning PPE</t>
+  </si>
+  <si>
+    <t>Advise all spray operators to be in full PPE before boarding truck</t>
+  </si>
+  <si>
+    <t>Advise spray operators not to eat after donning PPE. Make note of spray team and suggest retraining</t>
+  </si>
+  <si>
+    <t>Ask the spray team supervisor to demonstrate the correct procedure for filling up sprayers for spray operations</t>
+  </si>
+  <si>
+    <t>selected(data('Q9_YN'),'yes')</t>
+  </si>
+  <si>
+    <t>Ask spray team supervisor to demonstrate correct procedure for filling up sprayers for spray operations</t>
+  </si>
+  <si>
+    <t>Ask the supervisors to ensure that teams are properly spaced and staggered in the vehicle before departure from the operations site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begin screen </t>
+  </si>
+  <si>
+    <t>Q12_YN</t>
+  </si>
+  <si>
+    <t>Q12_AddInfo</t>
+  </si>
+  <si>
+    <t>sub_county</t>
+  </si>
+  <si>
+    <t>selected(data('county'), 'other') || selected(data('sub_county'), 'other')</t>
+  </si>
+  <si>
+    <t>sub_county_other</t>
+  </si>
+  <si>
+    <t>county_other</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>ward_other</t>
+  </si>
+  <si>
+    <t>operations_site_other</t>
+  </si>
+  <si>
+    <t>operations_site</t>
+  </si>
+  <si>
+    <t>selected(data('county'), 'other') || selected(data('ward'), 'other')</t>
+  </si>
+  <si>
+    <t>selected(data('county'), 'other') || selected(data('operations_site'), 'other')</t>
+  </si>
+  <si>
+    <t>choice_item.county === data('county') || choice_item.county === 'other'</t>
+  </si>
+  <si>
+    <t>choice_item.county === data('county') &amp;&amp; choice_item.sub_county === data('sub_county') || choice_item.sub_county === 'other'</t>
+  </si>
+  <si>
+    <t>choice_item.county === data('county') &amp;&amp; choice_item.sub_county === data('sub_county') &amp;&amp; choice_item.ward === data('ward') || choice_item.ward === 'other'</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>choice_item.role === data('inspectors_roles')</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>not(selected(data('Q8_YN'),'Helmet')) || not(selected(data('Q8_YN'),'Face Shield')) || not(selected(data('Q8_YN'),'Face Mask')) || not(selected(data('Q8_YN'),'Coveralls')) || not(selected(data('Q8_YN'),'Boots')) || not(selected(data('Q8_YN'),'Gloves')) || not(selected(data('Q8_YN'),'Neck Protection')) || not(selected(data('Q8_YN'),'Flashlight/Torch')) || selected(data('Q8_YN'),'None')</t>
   </si>
 </sst>
 </file>
@@ -1762,11 +1756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V207"/>
+  <dimension ref="A1:V217"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1825,7 +1819,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>26</v>
@@ -1858,7 +1852,7 @@
         <v>25</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.15">
@@ -1866,1431 +1860,1394 @@
         <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:22" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="S4" s="8"/>
-    </row>
-    <row r="5" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+    </row>
+    <row r="16" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:22" ht="47" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="47" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>23</v>
+      <c r="B21" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="8"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:22" ht="43" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C22" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E22" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="H25" t="b">
-        <v>1</v>
-      </c>
-      <c r="S25" s="9"/>
-    </row>
-    <row r="26" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="E26" s="9"/>
-      <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="1:22" ht="53" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="8"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" s="9"/>
+    </row>
+    <row r="34" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="E34" s="9"/>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="1:22" ht="53" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="D35" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:22" ht="53" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>258</v>
       </c>
-      <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="F30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="H31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="H32" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="13"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="1:12" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="H35"/>
-      <c r="I35" s="31"/>
-    </row>
-    <row r="36" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="8"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="10"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="H37" t="s">
-        <v>222</v>
-      </c>
-      <c r="I37" s="8"/>
+    <row r="37" spans="1:22" ht="53" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="10"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>279</v>
-      </c>
-      <c r="E38"/>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="1:12" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="25"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="H39"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-    </row>
-    <row r="40" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" t="s">
-        <v>275</v>
-      </c>
-      <c r="E40"/>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="17" t="s">
+    <row r="38" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E41" s="9" t="str">
-        <f>SUBSTITUTE(E36,"YN","Action")</f>
-        <v>Q1_Action</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>270</v>
-      </c>
+      <c r="D38" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="8"/>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="F40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="10"/>
+        <v>241</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="9" t="s">
+        <v>246</v>
+      </c>
       <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>271</v>
-      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="13"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="9"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="9"/>
+    </row>
+    <row r="45" spans="1:22" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H45"/>
+      <c r="I45" s="31"/>
+    </row>
+    <row r="46" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
       <c r="I46" s="8"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E47" s="9" t="str">
-        <f>SUBSTITUTE(E44,"YN","Action")</f>
-        <v>Q1a_Action</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>378</v>
+        <v>194</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H47" t="s">
+        <v>210</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:22" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>258</v>
+      </c>
+      <c r="E48"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:12" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="25"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="H49"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+    </row>
+    <row r="50" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>254</v>
+      </c>
+      <c r="E50"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E51" s="9" t="str">
+        <f>SUBSTITUTE(E46,"YN","Action")</f>
+        <v>Q1_Action</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="10"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="10"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9" t="str">
-        <f>SUBSTITUTE(E36,"YN","Comments")</f>
-        <v>Q1_Comments</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="I50" s="8"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="8"/>
       <c r="B52" s="17"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
+      <c r="F52" s="10"/>
       <c r="I52" s="8"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="8"/>
-      <c r="B53" s="17"/>
+      <c r="A53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>255</v>
+      </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
+      <c r="F53" s="10"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:12" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="H54"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
+    </row>
+    <row r="54" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="1"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9" t="s">
+      <c r="A55" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="9"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="9"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D55" t="s">
-        <v>191</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G55" s="9"/>
-      <c r="H55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" t="s">
-        <v>197</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H56" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="E58" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="H58"/>
+      <c r="D57" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="9" t="str">
+        <f>SUBSTITUTE(E54,"YN","Action")</f>
+        <v>Q1a_Action</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="I57" s="8"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="10"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+      <c r="A59" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B59" t="s">
-        <v>290</v>
-      </c>
-      <c r="E59"/>
+      <c r="B59" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="10"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9" t="str">
+        <f>SUBSTITUTE(E46,"YN","Comments")</f>
+        <v>Q1_Comments</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="I60" s="8"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="17"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="8"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="8"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="H64"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+    </row>
+    <row r="65" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D60" t="s">
-        <v>189</v>
-      </c>
-      <c r="E60" s="9" t="str">
-        <f>SUBSTITUTE(E55,"YN","Action")</f>
+      <c r="D65" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G65" s="9"/>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="4"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>194</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H66" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="E68" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>267</v>
+      </c>
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" t="s">
+        <v>186</v>
+      </c>
+      <c r="E70" s="9" t="str">
+        <f>SUBSTITUTE(E65,"YN","Action")</f>
         <v>Q2_Action</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+      <c r="F70" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="9"/>
-      <c r="C64" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="G64" s="9"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D66" t="s">
-        <v>189</v>
-      </c>
-      <c r="E66" s="9" t="str">
-        <f>SUBSTITUTE(E64,"YN","Action")</f>
-        <v>Q2a_Action</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="9"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>22</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="9"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="9" t="str">
-        <f>SUBSTITUTE(E55,"YN","Comments")</f>
-        <v>Q2_Comments</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="I69" s="9"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="1:12" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="H73"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="9"/>
       <c r="C74" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>297</v>
+      <c r="D74" t="s">
+        <v>188</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>266</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H74" t="b">
-        <v>1</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G74" s="9"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="9"/>
-      <c r="C75" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="H75" t="s">
-        <v>222</v>
-      </c>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
+    <row r="75" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="76" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>279</v>
+      <c r="C76" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="D76" t="s">
-        <v>222</v>
-      </c>
-      <c r="E76" t="s">
-        <v>222</v>
+        <v>186</v>
+      </c>
+      <c r="E76" s="9" t="str">
+        <f>SUBSTITUTE(E74,"YN","Action")</f>
+        <v>Q2a_Action</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>362</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E77"/>
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="9"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E78"/>
+      <c r="A78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="9"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="H79"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="26"/>
+    <row r="79" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="9" t="str">
+        <f>SUBSTITUTE(E65,"YN","Comments")</f>
+        <v>Q2_Comments</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="F80" t="s">
-        <v>270</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="I80" s="9"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>23</v>
-      </c>
+    <row r="81" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="9"/>
       <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="10"/>
-      <c r="G81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="I81" s="9"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>299</v>
-      </c>
+    <row r="82" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="9"/>
       <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="10"/>
-      <c r="G82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="I82" s="9"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="1:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>23</v>
-      </c>
+    <row r="83" spans="1:12" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="H83"/>
+    </row>
+    <row r="84" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
+      <c r="C84" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
+      <c r="C85" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H85" t="s">
+        <v>210</v>
+      </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
+    <row r="86" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86" t="s">
+        <v>210</v>
+      </c>
+      <c r="E86" t="s">
+        <v>210</v>
+      </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:15" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="H87"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
-    </row>
-    <row r="88" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" t="s">
-        <v>191</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="G88" s="9"/>
-      <c r="H88" t="b">
-        <v>1</v>
-      </c>
+    <row r="87" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E87"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E88"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D89" t="s">
-        <v>197</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G89" s="9"/>
-      <c r="H89" t="s">
-        <v>222</v>
-      </c>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="1:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>279</v>
-      </c>
-      <c r="C90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
+    <row r="89" spans="1:12" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="H89"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+    </row>
+    <row r="90" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F90" t="s">
+        <v>249</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>363</v>
+      </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:15" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="H91"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="26"/>
-      <c r="L91" s="26"/>
-      <c r="O91" s="25"/>
-    </row>
-    <row r="92" spans="1:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="10"/>
+      <c r="G91" s="9"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>22</v>
       </c>
-      <c r="B92" t="s">
-        <v>306</v>
-      </c>
-      <c r="E92"/>
-    </row>
-    <row r="93" spans="1:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="10"/>
+      <c r="G92" s="9"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" t="s">
-        <v>189</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D93" s="9"/>
       <c r="E93" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="F93" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="G93" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="I93" s="8"/>
+      <c r="F93" s="9" t="s">
+        <v>251</v>
+      </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-      <c r="O93" s="8"/>
-    </row>
-    <row r="94" spans="1:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>23</v>
       </c>
+      <c r="B94" s="9"/>
       <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="9"/>
-      <c r="I94" s="8"/>
+      <c r="F94" s="9"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
-      <c r="O94" s="8"/>
-    </row>
-    <row r="95" spans="1:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>22</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>307</v>
-      </c>
+    </row>
+    <row r="95" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="9"/>
       <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="9"/>
-      <c r="I95" s="8"/>
+      <c r="F95" s="9"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-      <c r="O95" s="8"/>
-    </row>
-    <row r="96" spans="1:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="I96" s="8"/>
+    </row>
+    <row r="96" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
-      <c r="O96" s="8"/>
-    </row>
-    <row r="97" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>23</v>
-      </c>
-      <c r="C97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="O97" s="8"/>
-    </row>
-    <row r="98" spans="1:18" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E98"/>
-      <c r="I98" s="7"/>
+    </row>
+    <row r="97" spans="1:18" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="H97"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="30"/>
+      <c r="L97" s="30"/>
+    </row>
+    <row r="98" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" t="s">
+        <v>188</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G98" s="9"/>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
-      <c r="O98" s="8"/>
     </row>
     <row r="99" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E99"/>
-      <c r="I99" s="8"/>
+      <c r="C99" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" t="s">
+        <v>194</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G99" s="9"/>
+      <c r="H99" t="s">
+        <v>210</v>
+      </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
-      <c r="P99" s="8"/>
-      <c r="Q99" s="8"/>
-      <c r="R99" s="1"/>
-    </row>
-    <row r="100" spans="1:18" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="H100"/>
-    </row>
-    <row r="101" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="9" t="s">
+    </row>
+    <row r="100" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>258</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+    </row>
+    <row r="101" spans="1:18" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="H101"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="26"/>
+      <c r="O101" s="25"/>
+    </row>
+    <row r="102" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" t="s">
+        <v>281</v>
+      </c>
+      <c r="E102"/>
+    </row>
+    <row r="103" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D101" t="s">
-        <v>191</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="H101" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" t="s">
-        <v>197</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="H102" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
+      <c r="D103" t="s">
+        <v>186</v>
+      </c>
+      <c r="E103" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-    </row>
-    <row r="104" spans="1:18" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="23"/>
-      <c r="E104" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="F104" s="23"/>
-      <c r="H104"/>
-    </row>
-    <row r="105" spans="1:18" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="6" t="s">
+      <c r="F103" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="I103" s="8"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="O103" s="8"/>
+    </row>
+    <row r="104" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="9"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="O104" s="8"/>
+    </row>
+    <row r="105" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
         <v>22</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
-      <c r="H105"/>
+        <v>282</v>
+      </c>
+      <c r="C105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="9"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="O105" s="8"/>
     </row>
     <row r="106" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C106" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="F106" s="10" t="s">
-        <v>270</v>
+        <v>280</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>309</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="I106" s="8"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="O106" s="8"/>
     </row>
     <row r="107" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
@@ -3298,1015 +3255,1136 @@
       </c>
       <c r="C107" s="9"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="10"/>
+      <c r="F107" s="9"/>
       <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
+      <c r="I107" s="8"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="O107" s="8"/>
+    </row>
+    <row r="108" spans="1:18" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E108"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="O108" s="8"/>
+    </row>
+    <row r="109" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E109"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="P109" s="8"/>
+      <c r="Q109" s="8"/>
+      <c r="R109" s="1"/>
+    </row>
+    <row r="110" spans="1:18" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="H110"/>
+    </row>
+    <row r="111" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" t="s">
+        <v>188</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" t="s">
+        <v>194</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H112" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>258</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+    </row>
+    <row r="114" spans="1:8" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="23"/>
+      <c r="E114" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F114" s="23"/>
+      <c r="H114"/>
+    </row>
+    <row r="115" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B108" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" t="s">
+      <c r="B115" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C115" s="32"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
+      <c r="H115"/>
+    </row>
+    <row r="116" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" t="s">
+        <v>186</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
         <v>23</v>
       </c>
-      <c r="E110"/>
-    </row>
-    <row r="111" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E111"/>
-    </row>
-    <row r="112" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E112"/>
-    </row>
-    <row r="113" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="H113"/>
-    </row>
-    <row r="114" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D114" t="s">
-        <v>191</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="G114" s="9"/>
-      <c r="H114" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D115" t="s">
-        <v>197</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G115" s="9"/>
-      <c r="H115" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C116" s="32"/>
-      <c r="E116" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="F116" s="32"/>
-      <c r="G116" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="H116"/>
-    </row>
-    <row r="117" spans="1:8" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="23"/>
-      <c r="E117" s="33"/>
-      <c r="H117"/>
+      <c r="C117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="9"/>
     </row>
     <row r="118" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="6" t="s">
+      <c r="A118" t="s">
         <v>22</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C118" s="32"/>
-      <c r="D118" s="6"/>
-      <c r="G118" s="9" t="s">
-        <v>222</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="9"/>
     </row>
     <row r="119" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C119" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>317</v>
+        <v>288</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>23</v>
       </c>
-      <c r="C120" s="9"/>
+      <c r="E120"/>
     </row>
     <row r="121" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" t="s">
+      <c r="E121"/>
+    </row>
+    <row r="122" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E122"/>
+    </row>
+    <row r="123" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="H123"/>
+    </row>
+    <row r="124" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" t="s">
+        <v>188</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="G124" s="9"/>
+      <c r="H124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C125" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" t="s">
+        <v>194</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G125" s="9"/>
+      <c r="H125" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C126" s="32"/>
+      <c r="E126" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="H126"/>
+    </row>
+    <row r="127" spans="1:8" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="23"/>
+      <c r="E127" s="33"/>
+      <c r="H127"/>
+    </row>
+    <row r="128" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B121" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C121" s="9"/>
-      <c r="E121"/>
-    </row>
-    <row r="122" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" t="s">
+      <c r="B128" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C128" s="32"/>
+      <c r="D128" s="6"/>
+      <c r="G128" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" t="s">
+        <v>186</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
         <v>23</v>
       </c>
-      <c r="E123"/>
-    </row>
-    <row r="124" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E124"/>
-    </row>
-    <row r="125" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E125"/>
-    </row>
-    <row r="126" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="H126"/>
-    </row>
-    <row r="127" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D127" t="s">
-        <v>191</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="G127" s="9"/>
-      <c r="H127" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D128" t="s">
-        <v>197</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G128" s="9"/>
-      <c r="H128" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C129" s="32"/>
-      <c r="E129" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="F129" s="32"/>
-      <c r="G129" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="H129"/>
-    </row>
-    <row r="130" spans="1:8" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="23"/>
-      <c r="H130"/>
+      <c r="C130" s="9"/>
     </row>
     <row r="131" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="6" t="s">
+      <c r="A131" t="s">
         <v>22</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C131" s="32"/>
-      <c r="D131" s="6"/>
-      <c r="G131" s="9" t="s">
-        <v>222</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="E131"/>
     </row>
     <row r="132" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C132" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D132" t="s">
-        <v>189</v>
-      </c>
-      <c r="E132" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="F132" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="G132" s="32" t="s">
-        <v>325</v>
+        <v>9</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>23</v>
       </c>
-      <c r="C133" s="9"/>
+      <c r="E133"/>
     </row>
     <row r="134" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" t="s">
+      <c r="E134"/>
+    </row>
+    <row r="135" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E135"/>
+    </row>
+    <row r="136" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="H136"/>
+    </row>
+    <row r="137" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C137" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D137" t="s">
+        <v>188</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G137" s="9"/>
+      <c r="H137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C138" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" t="s">
+        <v>194</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G138" s="9"/>
+      <c r="H138" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C139" s="32"/>
+      <c r="E139" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F139" s="32"/>
+      <c r="G139" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="H139"/>
+    </row>
+    <row r="140" spans="1:8" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C140" s="23"/>
+      <c r="H140"/>
+    </row>
+    <row r="141" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B134" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C134" s="9"/>
-      <c r="E134"/>
-    </row>
-    <row r="135" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" t="s">
+      <c r="B141" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C141" s="32"/>
+      <c r="D141" s="6"/>
+      <c r="G141" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C142" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" t="s">
+        <v>186</v>
+      </c>
+      <c r="E142" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="F142" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="G142" s="32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
         <v>23</v>
       </c>
-      <c r="E136"/>
-    </row>
-    <row r="137" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E137"/>
-    </row>
-    <row r="138" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E138"/>
-    </row>
-    <row r="139" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="C139" s="22"/>
-      <c r="D139" s="22"/>
-      <c r="E139" s="22"/>
-      <c r="F139" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="H139"/>
-    </row>
-    <row r="140" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C140" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D140" t="s">
-        <v>191</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="F140" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="G140" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="H140" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C141" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141" t="s">
-        <v>197</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G141" s="9"/>
-      <c r="H141" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C142" s="32"/>
-      <c r="E142" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="F142" s="32"/>
-      <c r="G142" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="H142"/>
-    </row>
-    <row r="143" spans="1:8" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C143" s="23"/>
-      <c r="F143" s="33"/>
-      <c r="H143"/>
+      <c r="C143" s="9"/>
     </row>
     <row r="144" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="6" t="s">
+      <c r="A144" t="s">
         <v>22</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C144" s="32"/>
-      <c r="D144" s="6"/>
+        <v>306</v>
+      </c>
+      <c r="C144" s="9"/>
       <c r="E144"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="9" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="145" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C145" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D145" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F145" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>334</v>
+        <v>304</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>23</v>
       </c>
-      <c r="C146" s="9"/>
       <c r="E146"/>
     </row>
     <row r="147" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" t="s">
+      <c r="E147"/>
+    </row>
+    <row r="148" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E148"/>
+    </row>
+    <row r="149" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C149" s="22"/>
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H149"/>
+    </row>
+    <row r="150" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C150" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" t="s">
+        <v>196</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="H150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C151" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" t="s">
+        <v>194</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G151" s="9"/>
+      <c r="H151" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C152" s="32"/>
+      <c r="E152" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F152" s="32"/>
+      <c r="G152" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="H152"/>
+    </row>
+    <row r="153" spans="1:8" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C153" s="23"/>
+      <c r="F153" s="33"/>
+      <c r="H153"/>
+    </row>
+    <row r="154" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B147" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C147" s="9"/>
-      <c r="E147"/>
-    </row>
-    <row r="148" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E148" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="F148" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" t="s">
+      <c r="B154" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C154" s="32"/>
+      <c r="D154" s="6"/>
+      <c r="E154"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C155" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D155" t="s">
+        <v>186</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
         <v>23</v>
       </c>
-      <c r="E149"/>
-    </row>
-    <row r="150" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E150"/>
-    </row>
-    <row r="151" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E151"/>
-    </row>
-    <row r="152" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="C152" s="22"/>
-      <c r="D152" s="22"/>
-      <c r="E152" s="22"/>
-      <c r="F152" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="H152"/>
-    </row>
-    <row r="153" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C153" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D153" t="s">
-        <v>191</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="F153" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="G153" s="9"/>
-      <c r="H153" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C154" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D154" t="s">
-        <v>197</v>
-      </c>
-      <c r="E154" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="F154" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G154" s="9"/>
-      <c r="H154" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C155" s="32"/>
-      <c r="E155" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="F155" s="32"/>
-      <c r="G155" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="H155"/>
-    </row>
-    <row r="156" spans="1:8" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C156" s="23"/>
-      <c r="H156"/>
+      <c r="C156" s="9"/>
+      <c r="E156"/>
     </row>
     <row r="157" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="6" t="s">
+      <c r="A157" t="s">
         <v>22</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="C157" s="32"/>
-      <c r="D157" s="6"/>
+        <v>313</v>
+      </c>
+      <c r="C157" s="9"/>
       <c r="E157"/>
-      <c r="G157" s="9" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="158" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C158" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D158" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="F158" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="G158" s="9" t="s">
-        <v>342</v>
+        <v>312</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>23</v>
       </c>
-      <c r="C159" s="9"/>
       <c r="E159"/>
     </row>
     <row r="160" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" t="s">
+      <c r="E160"/>
+    </row>
+    <row r="161" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E161"/>
+    </row>
+    <row r="162" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C162" s="22"/>
+      <c r="D162" s="22"/>
+      <c r="E162" s="22"/>
+      <c r="F162" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H162"/>
+    </row>
+    <row r="163" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C163" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" t="s">
+        <v>188</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G163" s="9"/>
+      <c r="H163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C164" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" t="s">
+        <v>194</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G164" s="9"/>
+      <c r="H164" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C165" s="32"/>
+      <c r="E165" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F165" s="32"/>
+      <c r="G165" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="H165"/>
+    </row>
+    <row r="166" spans="1:8" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C166" s="23"/>
+      <c r="H166"/>
+    </row>
+    <row r="167" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B160" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="C160" s="9"/>
-      <c r="E160"/>
-    </row>
-    <row r="161" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C161" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" t="s">
+      <c r="B167" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C167" s="32"/>
+      <c r="D167" s="6"/>
+      <c r="E167"/>
+      <c r="G167" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C168" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168" t="s">
+        <v>186</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
         <v>23</v>
       </c>
-      <c r="E162"/>
-    </row>
-    <row r="163" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E163"/>
-    </row>
-    <row r="164" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E164"/>
-    </row>
-    <row r="165" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="C165" s="22"/>
-      <c r="D165" s="22"/>
-      <c r="E165" s="22"/>
-      <c r="F165" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="H165"/>
-    </row>
-    <row r="166" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C166" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D166" t="s">
-        <v>191</v>
-      </c>
-      <c r="E166" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F166" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="G166" s="9"/>
-      <c r="H166" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C167" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D167" t="s">
-        <v>197</v>
-      </c>
-      <c r="E167" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F167" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G167" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H167" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C168" s="32"/>
-      <c r="E168" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="F168" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="G168" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="H168"/>
-    </row>
-    <row r="169" spans="1:8" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C169" s="23"/>
-      <c r="E169" s="33"/>
-      <c r="H169"/>
+      <c r="C169" s="9"/>
+      <c r="E169"/>
     </row>
     <row r="170" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="6" t="s">
+      <c r="A170" t="s">
         <v>22</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="C170" s="32"/>
-      <c r="D170" s="6"/>
-      <c r="G170" s="9" t="s">
-        <v>222</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C170" s="9"/>
+      <c r="E170"/>
     </row>
     <row r="171" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C171" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D171" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="F171" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="G171" s="9" t="s">
-        <v>350</v>
+        <v>318</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>23</v>
       </c>
-      <c r="C172" s="9"/>
+      <c r="E172"/>
     </row>
     <row r="173" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" t="s">
+      <c r="E173"/>
+    </row>
+    <row r="174" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E174"/>
+    </row>
+    <row r="175" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C175" s="22"/>
+      <c r="D175" s="22"/>
+      <c r="E175" s="22"/>
+      <c r="F175" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H175"/>
+    </row>
+    <row r="176" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C176" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D176" t="s">
+        <v>191</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F176" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="G176" s="9"/>
+      <c r="H176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C177" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D177" t="s">
+        <v>194</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H177" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C178" s="32"/>
+      <c r="E178" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F178" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="G178" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="H178"/>
+    </row>
+    <row r="179" spans="1:8" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C179" s="23"/>
+      <c r="E179" s="33"/>
+      <c r="H179"/>
+    </row>
+    <row r="180" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B173" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C173" s="9"/>
-      <c r="E173"/>
-    </row>
-    <row r="174" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C174" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="F174" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" t="s">
+      <c r="B180" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C180" s="32"/>
+      <c r="D180" s="6"/>
+      <c r="G180" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C181" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D181" t="s">
+        <v>186</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
         <v>23</v>
       </c>
-      <c r="E175"/>
-    </row>
-    <row r="176" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E176"/>
-    </row>
-    <row r="177" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E177"/>
-    </row>
-    <row r="178" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="C178" s="22"/>
-      <c r="D178" s="22"/>
-      <c r="E178" s="22"/>
-      <c r="F178" s="22" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C179" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D179" t="s">
-        <v>191</v>
-      </c>
-      <c r="E179" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="F179" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="G179" s="9"/>
-      <c r="H179" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C180" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D180" t="s">
-        <v>197</v>
-      </c>
-      <c r="E180" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="F180" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G180" s="9"/>
-      <c r="H180" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C181" s="32"/>
-      <c r="E181" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="F181" s="32"/>
-      <c r="G181" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="H181"/>
-    </row>
-    <row r="182" spans="1:8" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C182" s="23"/>
-      <c r="E182" s="33"/>
+      <c r="C182" s="9"/>
     </row>
     <row r="183" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="6" t="s">
+      <c r="A183" t="s">
         <v>22</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C183" s="32"/>
-      <c r="D183" s="6"/>
-      <c r="G183" s="9" t="s">
-        <v>222</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C183" s="9"/>
+      <c r="E183"/>
     </row>
     <row r="184" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C184" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D184" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="F184" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="G184" s="9" t="s">
-        <v>358</v>
+        <v>324</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>23</v>
       </c>
-      <c r="C185" s="9"/>
+      <c r="E185"/>
     </row>
     <row r="186" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" t="s">
+      <c r="E186"/>
+    </row>
+    <row r="187" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E187"/>
+    </row>
+    <row r="188" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C188" s="22"/>
+      <c r="D188" s="22"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C189" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D189" t="s">
+        <v>188</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F189" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G189" s="9"/>
+      <c r="H189" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C190" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D190" t="s">
+        <v>194</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G190" s="9"/>
+      <c r="H190" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C191" s="32"/>
+      <c r="E191" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F191" s="32"/>
+      <c r="G191" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="H191"/>
+    </row>
+    <row r="192" spans="1:8" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C192" s="23"/>
+      <c r="E192" s="33"/>
+    </row>
+    <row r="193" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B186" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="C186" s="9"/>
-      <c r="E186"/>
-    </row>
-    <row r="187" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C187" s="9" t="s">
+      <c r="B193" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C193" s="32"/>
+      <c r="D193" s="6"/>
+      <c r="G193" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C194" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D194" t="s">
+        <v>186</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F194" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G194" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>23</v>
+      </c>
+      <c r="C195" s="9"/>
+    </row>
+    <row r="196" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>22</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C196" s="9"/>
+      <c r="E196"/>
+    </row>
+    <row r="197" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C197" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E187" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="F187" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="C191" s="35"/>
-      <c r="D191" s="35"/>
-      <c r="E191" s="35"/>
-      <c r="F191" s="35"/>
-    </row>
-    <row r="192" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C192" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D192" t="s">
-        <v>191</v>
-      </c>
-      <c r="E192" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="F192" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="G192" s="20"/>
-      <c r="H192" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C193" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D193" t="s">
-        <v>197</v>
-      </c>
-      <c r="E193" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="F193" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G193" s="20"/>
-      <c r="H193" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B194" s="6"/>
-      <c r="C194" s="32"/>
-      <c r="D194" s="6"/>
-      <c r="E194" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C195" s="23"/>
-      <c r="E195" s="33"/>
-      <c r="F195" s="36"/>
-      <c r="G195" s="36"/>
-    </row>
-    <row r="196" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="C196" s="32"/>
-      <c r="D196" s="6"/>
-    </row>
-    <row r="197" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C197" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D197" t="s">
-        <v>189</v>
-      </c>
       <c r="E197" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="F197" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="G197" s="20" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>23</v>
       </c>
-      <c r="C198" s="9"/>
-      <c r="G198" s="20"/>
-    </row>
-    <row r="199" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" t="s">
+    </row>
+    <row r="199" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" spans="1:8" s="29" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C201" s="35"/>
+      <c r="D201" s="35"/>
+      <c r="E201" s="35"/>
+      <c r="F201" s="35"/>
+    </row>
+    <row r="202" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C202" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D202" t="s">
+        <v>188</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="F202" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="G202" s="20"/>
+      <c r="H202" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C203" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D203" t="s">
+        <v>194</v>
+      </c>
+      <c r="E203" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F203" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="G203" s="20"/>
+      <c r="H203" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B204" s="6"/>
+      <c r="C204" s="32"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C205" s="23"/>
+      <c r="E205" s="33"/>
+      <c r="F205" s="36"/>
+      <c r="G205" s="36"/>
+    </row>
+    <row r="206" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B199" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="C199" s="9"/>
-      <c r="E199"/>
-    </row>
-    <row r="200" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C200" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E200" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="F200" s="20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="C204" s="22"/>
-      <c r="D204" s="22"/>
-      <c r="E204" s="22"/>
-    </row>
-    <row r="205" spans="1:8" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C205" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E205" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="F205" s="34" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" t="s">
-        <v>279</v>
-      </c>
-      <c r="E206"/>
+      <c r="B206" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C206" s="32"/>
+      <c r="D206" s="6"/>
     </row>
     <row r="207" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C207" s="9" t="s">
-        <v>373</v>
+        <v>21</v>
+      </c>
+      <c r="D207" t="s">
+        <v>186</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="F207" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="G207" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="H207" t="b">
+        <v>335</v>
+      </c>
+      <c r="F207" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="G207" s="20" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
+        <v>23</v>
+      </c>
+      <c r="C208" s="9"/>
+      <c r="G208" s="20"/>
+    </row>
+    <row r="209" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
+        <v>22</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C209" s="9"/>
+      <c r="E209"/>
+    </row>
+    <row r="210" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C210" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="F210" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C214" s="22"/>
+      <c r="D214" s="22"/>
+      <c r="E214" s="22"/>
+    </row>
+    <row r="215" spans="1:8" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C215" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="F215" s="34" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" t="s">
+        <v>258</v>
+      </c>
+      <c r="E216"/>
+    </row>
+    <row r="217" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C217" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E217" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F217" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="G217" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="H217" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4323,20 +4401,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:G182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159:B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -4347,16 +4426,19 @@
         <v>34</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>57</v>
+        <v>374</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+      <c r="G1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -4370,7 +4452,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -4384,29 +4466,29 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>36</v>
@@ -4414,15 +4496,15 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>36</v>
@@ -4430,15 +4512,15 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>36</v>
@@ -4446,15 +4528,15 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>36</v>
@@ -4462,15 +4544,15 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>36</v>
@@ -4478,15 +4560,15 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>36</v>
@@ -4494,15 +4576,15 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>36</v>
@@ -4510,15 +4592,15 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>36</v>
@@ -4526,15 +4608,15 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>37</v>
@@ -4542,15 +4624,15 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>37</v>
@@ -4558,15 +4640,15 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>37</v>
@@ -4574,15 +4656,15 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>37</v>
@@ -4592,13 +4674,13 @@
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>37</v>
@@ -4608,13 +4690,13 @@
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>37</v>
@@ -4624,2543 +4706,2543 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>378</v>
+      </c>
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F47" s="9"/>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F51" s="9"/>
     </row>
     <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F53" s="9"/>
     </row>
     <row r="54" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F62" s="9"/>
     </row>
     <row r="63" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F63" s="9"/>
     </row>
     <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F64" s="9"/>
     </row>
     <row r="65" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F65" s="9"/>
     </row>
     <row r="66" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F67" s="9"/>
     </row>
     <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F68" s="9"/>
     </row>
     <row r="69" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F69" s="9"/>
     </row>
     <row r="70" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C70" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F70" s="9"/>
     </row>
     <row r="71" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F71" s="9"/>
     </row>
     <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F72" s="9"/>
     </row>
     <row r="73" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F73" s="9"/>
     </row>
     <row r="74" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F74" s="9"/>
     </row>
     <row r="75" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C75" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F75" s="9"/>
     </row>
     <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F76" s="9"/>
     </row>
     <row r="77" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F77" s="9"/>
     </row>
     <row r="78" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F78" s="9"/>
     </row>
     <row r="79" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F79" s="9"/>
     </row>
     <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C80" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F80" s="9"/>
     </row>
     <row r="81" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B81" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F81" s="9"/>
     </row>
     <row r="82" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="8" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F82" s="9"/>
     </row>
     <row r="83" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C83" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
+        <v>381</v>
+      </c>
+      <c r="B85" t="s">
         <v>120</v>
       </c>
-      <c r="B85" t="s">
-        <v>123</v>
-      </c>
       <c r="C85" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B86" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B88" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C88" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B89" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B90" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C90" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B91" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C91" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B92" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C92" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B93" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C93" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B94" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B95" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C95" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B96" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C96" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B97" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C97" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B98" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C98" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B99" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C99" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B100" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C100" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B101" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C101" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B102" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C102" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B103" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C103" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B104" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C104" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B105" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C105" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B106" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C106" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B107" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C107" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B108" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C108" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B109" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C109" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B110" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C110" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B111" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C111" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B112" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C112" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B113" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C113" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B114" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C114" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B115" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C115" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B116" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C116" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B117" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C117" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B118" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C118" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B119" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C119" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B120" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C120" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B121" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C121" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B122" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C122" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B123" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C123" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B124" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C124" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B125" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C125" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B126" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C126" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B127" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C127" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B128" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C128" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B129" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C129" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B130" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C130" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B131" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C131" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B132" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C132" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B133" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C133" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B134" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C134" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B135" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C135" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B136" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C136" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B137" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C137" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B138" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C138" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B139" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C139" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B140" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C140" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D140" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B141" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C141" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B142" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C142" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B143" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C143" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B144" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C144" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B145" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C145" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B146" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C146" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B147" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C147" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B148" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C148" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B149" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C149" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B150" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C150" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="8" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F151" s="17" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B152" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C152" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
@@ -7168,53 +7250,53 @@
     </row>
     <row r="153" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B153" t="s">
         <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B154" t="s">
         <v>12</v>
       </c>
       <c r="C154" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
@@ -7222,13 +7304,13 @@
     </row>
     <row r="156" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B156" t="s">
         <v>12</v>
       </c>
       <c r="C156" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
@@ -7236,13 +7318,13 @@
     </row>
     <row r="157" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B157" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C157" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
@@ -7250,33 +7332,33 @@
     </row>
     <row r="158" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B159" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C159" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
@@ -7284,285 +7366,309 @@
     </row>
     <row r="160" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B160" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C160" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
     </row>
-    <row r="161" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
+        <v>196</v>
+      </c>
+      <c r="B161" t="s">
         <v>199</v>
       </c>
-      <c r="B161" t="s">
-        <v>204</v>
-      </c>
       <c r="C161" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
     </row>
-    <row r="162" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B162" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C162" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
     </row>
-    <row r="163" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B163" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C163" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
     </row>
-    <row r="164" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B164" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C164" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
     </row>
-    <row r="165" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B165" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C165" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
     </row>
-    <row r="166" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B166" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C166" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
     </row>
-    <row r="167" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B167" t="s">
-        <v>216</v>
+        <v>389</v>
       </c>
       <c r="C167" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
     </row>
-    <row r="168" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
     </row>
-    <row r="170" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B170" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="C170" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
     </row>
-    <row r="171" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B171" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="C171" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B172" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="C172" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B173" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="C173" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B174" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="C174" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B175" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="C175" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="G175" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B176" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="C176" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>352</v>
+      </c>
+      <c r="G176" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B177" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="C177" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>353</v>
+      </c>
+      <c r="G177" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B178" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="C178" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>354</v>
+      </c>
+      <c r="G178" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B179" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="C179" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>355</v>
+      </c>
+      <c r="G179" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B180" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="C180" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>356</v>
+      </c>
+      <c r="G180" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B181" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="C181" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>357</v>
+      </c>
+      <c r="G181" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B182" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="C182" t="s">
-        <v>392</v>
+        <v>358</v>
+      </c>
+      <c r="G182" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -7606,7 +7712,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7614,7 +7720,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7622,7 +7728,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.15"/>
